--- a/Unity/Assets/Config/Excel/CollisionConfig.xlsx
+++ b/Unity/Assets/Config/Excel/CollisionConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ToolSoft\U3D\Project\ETs\ET-OWDemo-1\Unity\Assets\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCDD4D35-232D-49CB-A04E-445CAC282B34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32B398CD-3EAB-4FFB-87D0-8398C6AB0B99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3360" yWindow="5916" windowWidth="19440" windowHeight="6420" tabRatio="809" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="809" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CollisionProto" sheetId="7" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="15">
   <si>
     <t>Id</t>
   </si>
@@ -71,6 +71,22 @@
   </si>
   <si>
     <t>int</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skeleton</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mask</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CollisionMaskType</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SelfDiff</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -455,10 +471,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -466,19 +482,21 @@
     <col min="1" max="2" width="9" style="1"/>
     <col min="3" max="3" width="9.5546875" style="1" customWidth="1"/>
     <col min="4" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="37.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="28.77734375" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="1"/>
+    <col min="6" max="6" width="17.33203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="37.6640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="28.77734375" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
     </row>
-    <row r="2" spans="1:6" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -486,8 +504,9 @@
         <v>5</v>
       </c>
       <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
     </row>
-    <row r="3" spans="1:6" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="3" t="s">
@@ -500,10 +519,13 @@
         <v>9</v>
       </c>
       <c r="F3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="3" t="s">
@@ -516,10 +538,13 @@
         <v>9</v>
       </c>
       <c r="F4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="3" t="s">
@@ -532,10 +557,13 @@
         <v>10</v>
       </c>
       <c r="F5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C6" s="4">
         <v>1</v>
       </c>
@@ -545,15 +573,27 @@
       <c r="E6" s="4">
         <v>0</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C7" s="4">
+        <v>5</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="4">
+        <v>0</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/Unity/Assets/Config/Excel/CollisionConfig.xlsx
+++ b/Unity/Assets/Config/Excel/CollisionConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ToolSoft\U3D\Project\ETs\ET-OWDemo-1\Unity\Assets\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32B398CD-3EAB-4FFB-87D0-8398C6AB0B99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A08C66B-382F-43D5-ABB2-3CFAC3DFA6E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="809" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
   <si>
     <t>Id</t>
   </si>
@@ -75,18 +75,6 @@
   </si>
   <si>
     <t>Skeleton</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mask</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>CollisionMaskType</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>SelfDiff</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -471,10 +459,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -482,21 +470,19 @@
     <col min="1" max="2" width="9" style="1"/>
     <col min="3" max="3" width="9.5546875" style="1" customWidth="1"/>
     <col min="4" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="17.33203125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="37.6640625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="28.77734375" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="1"/>
+    <col min="6" max="6" width="37.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="28.77734375" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-    </row>
-    <row r="2" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:6" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -504,9 +490,8 @@
         <v>5</v>
       </c>
       <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-    </row>
-    <row r="3" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:6" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="3" t="s">
@@ -519,13 +504,10 @@
         <v>9</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="3" t="s">
@@ -538,13 +520,10 @@
         <v>9</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="3" t="s">
@@ -557,13 +536,10 @@
         <v>10</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" s="4">
         <v>1</v>
       </c>
@@ -573,14 +549,11 @@
       <c r="E6" s="4">
         <v>0</v>
       </c>
-      <c r="F6" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" s="6" t="s">
+      <c r="F6" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" s="4">
         <v>5</v>
       </c>
@@ -590,10 +563,7 @@
       <c r="E7" s="4">
         <v>0</v>
       </c>
-      <c r="F7" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7" s="4"/>
+      <c r="F7" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/Unity/Assets/Config/Excel/CollisionConfig.xlsx
+++ b/Unity/Assets/Config/Excel/CollisionConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ToolSoft\U3D\Project\ETs\ET-OWDemo-1\Unity\Assets\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A08C66B-382F-43D5-ABB2-3CFAC3DFA6E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EB1A441-939B-45B0-9CE2-0D4A6819F5DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="809" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,8 +32,35 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>NullStackSuger</author>
+  </authors>
+  <commentList>
+    <comment ref="F3" authorId="0" shapeId="0" xr:uid="{5CF2D0DB-6335-4B91-A4F9-9C36F97A464A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>0:不跟随
+1.碰撞体跟随玩家
+-1:玩家跟随碰撞体</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
   <si>
     <t>Id</t>
   </si>
@@ -75,6 +102,18 @@
   </si>
   <si>
     <t>Skeleton</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>跟随Unit类型</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>FollowUnitType</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkeletonCollisionCallback</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -82,7 +121,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -138,6 +177,14 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="3">
@@ -458,11 +505,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -470,19 +517,21 @@
     <col min="1" max="2" width="9" style="1"/>
     <col min="3" max="3" width="9.5546875" style="1" customWidth="1"/>
     <col min="4" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="37.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="28.77734375" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="1"/>
+    <col min="6" max="6" width="15.33203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="37.6640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="28.77734375" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
     </row>
-    <row r="2" spans="1:6" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -490,8 +539,9 @@
         <v>5</v>
       </c>
       <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
     </row>
-    <row r="3" spans="1:6" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="3" t="s">
@@ -504,10 +554,13 @@
         <v>9</v>
       </c>
       <c r="F3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="3" t="s">
@@ -520,10 +573,13 @@
         <v>9</v>
       </c>
       <c r="F4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="3" t="s">
@@ -536,10 +592,13 @@
         <v>10</v>
       </c>
       <c r="F5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C6" s="4">
         <v>1</v>
       </c>
@@ -549,11 +608,14 @@
       <c r="E6" s="4">
         <v>0</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="4">
+        <v>-1</v>
+      </c>
+      <c r="G6" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C7" s="4">
         <v>5</v>
       </c>
@@ -563,10 +625,16 @@
       <c r="E7" s="4">
         <v>0</v>
       </c>
-      <c r="F7" s="4"/>
+      <c r="F7" s="4">
+        <v>1</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>14</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Unity/Assets/Config/Excel/CollisionConfig.xlsx
+++ b/Unity/Assets/Config/Excel/CollisionConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ToolSoft\U3D\Project\ETs\ET-OWDemo-1\Unity\Assets\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EB1A441-939B-45B0-9CE2-0D4A6819F5DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15113FB9-C64F-4864-9477-CF35A91F6688}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="809" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1272" yWindow="5100" windowWidth="19440" windowHeight="6420" tabRatio="809" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CollisionProto" sheetId="7" r:id="rId1"/>
@@ -38,7 +38,7 @@
     <author>NullStackSuger</author>
   </authors>
   <commentList>
-    <comment ref="F3" authorId="0" shapeId="0" xr:uid="{5CF2D0DB-6335-4B91-A4F9-9C36F97A464A}">
+    <comment ref="G3" authorId="0" shapeId="0" xr:uid="{FBB636F7-7FD2-4245-8CFC-BFE3B16972A2}">
       <text>
         <r>
           <rPr>
@@ -49,9 +49,7 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>0:不跟随
-1.碰撞体跟随玩家
--1:玩家跟随碰撞体</t>
+          <t>long类型导出时有问题?</t>
         </r>
       </text>
     </comment>
@@ -60,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="19">
   <si>
     <t>Id</t>
   </si>
@@ -105,15 +103,31 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>跟随Unit类型</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>FollowUnitType</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>SkeletonCollisionCallback</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>逆转张量</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>InvInertiaDiagLocal</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>None</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Damping</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>阻尼 * 100</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -506,10 +520,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -517,21 +531,22 @@
     <col min="1" max="2" width="9" style="1"/>
     <col min="3" max="3" width="9.5546875" style="1" customWidth="1"/>
     <col min="4" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="15.33203125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="37.6640625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="28.77734375" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="1"/>
+    <col min="6" max="7" width="20.33203125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="37.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="28.77734375" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -540,8 +555,9 @@
       </c>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
     </row>
-    <row r="3" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="3" t="s">
@@ -554,13 +570,16 @@
         <v>9</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="3" t="s">
@@ -573,13 +592,16 @@
         <v>9</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="3" t="s">
@@ -592,13 +614,16 @@
         <v>10</v>
       </c>
       <c r="F5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="H5" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C6" s="4">
         <v>1</v>
       </c>
@@ -608,14 +633,17 @@
       <c r="E6" s="4">
         <v>0</v>
       </c>
-      <c r="F6" s="4">
-        <v>-1</v>
-      </c>
-      <c r="G6" s="6" t="s">
+      <c r="F6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="4">
+        <v>0</v>
+      </c>
+      <c r="H6" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C7" s="4">
         <v>5</v>
       </c>
@@ -625,16 +653,20 @@
       <c r="E7" s="4">
         <v>0</v>
       </c>
-      <c r="F7" s="4">
-        <v>1</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>14</v>
+      <c r="F7" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="4">
+        <v>30</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Unity/Assets/Config/Excel/CollisionConfig.xlsx
+++ b/Unity/Assets/Config/Excel/CollisionConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ToolSoft\U3D\Project\ETs\ET-OWDemo-1\Unity\Assets\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15113FB9-C64F-4864-9477-CF35A91F6688}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9760205D-7DEC-4D3E-8297-60D1CC7A8496}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1272" yWindow="5100" windowWidth="19440" windowHeight="6420" tabRatio="809" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3600" yWindow="3780" windowWidth="19440" windowHeight="6420" tabRatio="809" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CollisionProto" sheetId="7" r:id="rId1"/>
@@ -32,33 +32,8 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>NullStackSuger</author>
-  </authors>
-  <commentList>
-    <comment ref="G3" authorId="0" shapeId="0" xr:uid="{FBB636F7-7FD2-4245-8CFC-BFE3B16972A2}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>long类型导出时有问题?</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="36">
   <si>
     <t>Id</t>
   </si>
@@ -72,62 +47,131 @@
     <t>string</t>
   </si>
   <si>
+    <t>#</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Callback</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>FireBallCollisionCallback</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>IsTrigger</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skeleton</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkeletonCollisionCallback</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>逆转张量</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>InvInertiaDiagLocal</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>None</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>HpStick</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>HpStickCollisionCallback</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Grenade</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>GrenadeCollisionCallback</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>EMP</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>EMPCollisionCallback</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PortalCollisionCallback</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Portal</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fort</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>FortBullet</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>FortBulletCollisionCallback</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>FireBall</t>
-  </si>
-  <si>
-    <t>#</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Callback</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>FireBallCollisionCallback</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>IsTrigger</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Skeleton</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>SkeletonCollisionCallback</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>逆转张量</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>InvInertiaDiagLocal</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>None</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Y</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Damping</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>阻尼 * 100</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shield</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>BounceCollisionCallback</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bounce</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>弹性系数</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>float</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Restitution</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ArmageddonCollisionCallback</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Armageddon</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -135,7 +179,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -184,22 +228,6 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -230,7 +258,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -241,9 +269,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -519,11 +544,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView tabSelected="1" topLeftCell="B6" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16:H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -551,7 +576,7 @@
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
@@ -567,16 +592,16 @@
         <v>1</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
@@ -589,16 +614,16 @@
         <v>1</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
@@ -611,16 +636,16 @@
         <v>3</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -628,19 +653,17 @@
         <v>1</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="E6" s="4">
         <v>0</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G6" s="4">
-        <v>0</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>8</v>
+        <v>14</v>
+      </c>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -648,25 +671,180 @@
         <v>5</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E7" s="4">
         <v>0</v>
       </c>
       <c r="F7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C8" s="4">
+        <v>6</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G7" s="4">
+      <c r="E8" s="4">
+        <v>1</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C9" s="4">
+        <v>7</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="4">
+        <v>0</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C10" s="4">
+        <v>8</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="4">
+        <v>1</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C11" s="4">
+        <v>9</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" s="4">
+        <v>1</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C12" s="4">
+        <v>10</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" s="4">
+        <v>0</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C13" s="4">
+        <v>11</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" s="4">
+        <v>0</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C14" s="4">
+        <v>12</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E14" s="4">
+        <v>1</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C15" s="4">
+        <v>13</v>
+      </c>
+      <c r="D15" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="H7" s="6" t="s">
-        <v>12</v>
+      <c r="E15" s="4">
+        <v>1</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C16" s="4">
+        <v>14</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E16" s="4">
+        <v>1</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Unity/Assets/Config/Excel/CollisionConfig.xlsx
+++ b/Unity/Assets/Config/Excel/CollisionConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ToolSoft\U3D\Project\ETs\ET-OWDemo-1\Unity\Assets\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9760205D-7DEC-4D3E-8297-60D1CC7A8496}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFDA60E0-3ABD-4BF8-9990-A889BC95DE62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3600" yWindow="3780" windowWidth="19440" windowHeight="6420" tabRatio="809" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="809" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CollisionProto" sheetId="7" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="36">
   <si>
     <t>Id</t>
   </si>
@@ -75,10 +75,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>SkeletonCollisionCallback</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>逆转张量</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -172,6 +168,10 @@
   </si>
   <si>
     <t>Armageddon</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SetRotation</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -545,10 +545,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B6" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16:H16"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -556,13 +556,13 @@
     <col min="1" max="2" width="9" style="1"/>
     <col min="3" max="3" width="9.5546875" style="1" customWidth="1"/>
     <col min="4" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="7" width="20.33203125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="37.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="28.77734375" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="1"/>
+    <col min="6" max="8" width="20.33203125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="37.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="28.77734375" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -570,8 +570,9 @@
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
-    </row>
-    <row r="2" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="H1" s="2"/>
+    </row>
+    <row r="2" spans="1:9" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -581,8 +582,9 @@
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
-    </row>
-    <row r="3" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="H2" s="5"/>
+    </row>
+    <row r="3" spans="1:9" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="3" t="s">
@@ -595,16 +597,19 @@
         <v>8</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H3" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I3" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="3" t="s">
@@ -617,16 +622,19 @@
         <v>8</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H4" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I4" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="3" t="s">
@@ -642,31 +650,35 @@
         <v>6</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I5" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C6" s="4">
         <v>1</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E6" s="4">
         <v>0</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G6" s="4"/>
-      <c r="H6" s="4" t="s">
+      <c r="H6" s="4"/>
+      <c r="I6" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C7" s="4">
         <v>5</v>
       </c>
@@ -677,125 +689,130 @@
         <v>0</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G7" s="4"/>
-      <c r="H7" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C8" s="4">
         <v>6</v>
       </c>
       <c r="D8" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="4">
+        <v>1</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="4">
-        <v>1</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C9" s="4">
         <v>7</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E9" s="4">
         <v>0</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G9" s="4"/>
-      <c r="H9" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H9" s="4"/>
+      <c r="I9" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C10" s="4">
         <v>8</v>
       </c>
       <c r="D10" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="4">
+        <v>1</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="4">
-        <v>1</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C11" s="4">
         <v>9</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E11" s="4">
         <v>1</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G11" s="4"/>
-      <c r="H11" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H11" s="4"/>
+      <c r="I11" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C12" s="4">
         <v>10</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E12" s="4">
         <v>0</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I12" s="4"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C13" s="4">
         <v>11</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E13" s="4">
         <v>0</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G13" s="4"/>
-      <c r="H13" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H13" s="4"/>
+      <c r="I13" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C14" s="4">
         <v>12</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E14" s="4">
         <v>1</v>
@@ -804,42 +821,49 @@
         <v>14</v>
       </c>
       <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H14" s="4">
+        <v>1</v>
+      </c>
+      <c r="I14" s="4"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C15" s="4">
         <v>13</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E15" s="4">
         <v>1</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G15" s="4"/>
-      <c r="H15" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H15" s="4">
+        <v>1</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C16" s="4">
         <v>14</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E16" s="4">
         <v>1</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G16" s="4"/>
-      <c r="H16" s="4" t="s">
-        <v>34</v>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/Unity/Assets/Config/Excel/CollisionConfig.xlsx
+++ b/Unity/Assets/Config/Excel/CollisionConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ToolSoft\U3D\Project\ETs\ET-OWDemo-1\Unity\Assets\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFDA60E0-3ABD-4BF8-9990-A889BC95DE62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EBD1D0E-E2F1-4CFD-8B7C-99972CA29D8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="809" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -171,7 +171,7 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>SetRotation</t>
+    <t>ApplyHeadRotation</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -548,7 +548,7 @@
   <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="C17" sqref="C17:I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>

--- a/Unity/Assets/Config/Excel/CollisionConfig.xlsx
+++ b/Unity/Assets/Config/Excel/CollisionConfig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ToolSoft\U3D\Project\ETs\ET-OWDemo-1\Unity\Assets\Config\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity\Project\ET-OWDemo\Unity\Assets\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EBD1D0E-E2F1-4CFD-8B7C-99972CA29D8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C40D88EA-DC74-4222-8997-3F84A06A1F2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="809" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" tabRatio="809" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CollisionProto" sheetId="7" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="37">
   <si>
     <t>Id</t>
   </si>
@@ -172,6 +172,10 @@
   </si>
   <si>
     <t>ApplyHeadRotation</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>"0.15"</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -548,21 +552,21 @@
   <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17:I17"/>
+      <selection activeCell="F4" sqref="F4:G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="9.5546875" style="1" customWidth="1"/>
-    <col min="4" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="8" width="20.33203125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="37.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="28.77734375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.54296875" style="1" customWidth="1"/>
+    <col min="4" max="5" width="11.6328125" style="1" customWidth="1"/>
+    <col min="6" max="8" width="20.36328125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="37.6328125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="28.81640625" style="1" customWidth="1"/>
     <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -572,7 +576,7 @@
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
     </row>
-    <row r="2" spans="1:9" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -584,7 +588,7 @@
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
     </row>
-    <row r="3" spans="1:9" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="3" t="s">
@@ -609,7 +613,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="3" t="s">
@@ -634,7 +638,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="3" t="s">
@@ -691,7 +695,9 @@
       <c r="F7" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="4"/>
+      <c r="G7" s="4" t="s">
+        <v>36</v>
+      </c>
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
     </row>
